--- a/documents/lehikoinen.roope.xlsx
+++ b/documents/lehikoinen.roope.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ropsutius/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roope\Documents\Github\bachelors-thesis\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068FDF57-A2A0-B340-A7C7-A304D5AF81C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BFD57-1E80-4F6A-9B62-7C110714F7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,6 +584,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,13 +596,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,7 +1433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1755,79 +1755,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="213" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="27">
         <v>457598</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
@@ -1838,20 +1838,20 @@
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>40</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>53</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>41</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>54</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>57</v>
       </c>
@@ -1905,22 +1905,22 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="13" t="s">
         <v>34</v>
@@ -1929,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1958,10 +1958,12 @@
         <f>B24*C24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -1990,10 +1992,12 @@
         <f>B31*C31</f>
         <v>0</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2022,10 +2026,12 @@
         <f>B38*C38</f>
         <v>0</v>
       </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
@@ -2054,10 +2060,12 @@
         <f>B45*C45</f>
         <v>0</v>
       </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>37</v>
       </c>
@@ -2086,10 +2094,12 @@
         <f>B52*C52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>37</v>
       </c>
@@ -2118,10 +2128,12 @@
         <f>B59*C59</f>
         <v>0</v>
       </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="64" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>38</v>
       </c>
@@ -2138,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>37</v>
       </c>
@@ -2150,16 +2162,18 @@
         <f>B66*C66</f>
         <v>0</v>
       </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="71" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>23</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>37</v>
       </c>
@@ -2188,10 +2202,12 @@
         <f>B75*C75</f>
         <v>0</v>
       </c>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="80" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>24</v>
       </c>
@@ -2206,7 +2222,7 @@
       </c>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>37</v>
       </c>
@@ -2220,8 +2236,8 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="87" spans="1:5" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>11</v>
       </c>
@@ -2234,10 +2250,10 @@
       </c>
       <c r="E88" s="14">
         <f>SUM(E75*C75+E66*C66+E59*C59+E52*C52+E45*C45+E38*C38+E31*C31+E24*C24)/SUM(C24+C31+C38+C45+C52+C59+C66+C75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3.9473684210526314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>12</v>
       </c>
@@ -2246,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>47</v>
       </c>
@@ -2271,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>46</v>
       </c>
@@ -2283,7 +2299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
@@ -2308,8 +2324,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>16</v>
       </c>
@@ -2317,7 +2333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A6:B6"/>
@@ -2354,7 +2370,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2366,7 +2382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
